--- a/Report/RiskAnalasys.xlsx
+++ b/Report/RiskAnalasys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Unity\FMP\Fmp\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C1BE9-02CD-4103-9A68-220D52209121}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{535E94CE-F99A-4F05-BF59-40DE42ACECB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Time Management</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Stress </t>
   </si>
   <si>
@@ -123,10 +121,31 @@
     <t>Entire Project</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>Eat healthy,                                                Exercise,                                                              Take medication</t>
+  </si>
+  <si>
+    <t>Missing sprint deadline</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Making sure to dedicated enough time for each sprint, if the time dedicated for the sprint is not enough, increase the work load to avoid missing the deadline</t>
+  </si>
+  <si>
+    <t>Failure in feature implementation</t>
+  </si>
+  <si>
+    <t>Make sure to research enough to avoid failing in implementing features. If the feature provides to be to dificult to implement, search for alternative ways to achieve the same result</t>
+  </si>
+  <si>
+    <t>Insufficient Testing</t>
+  </si>
+  <si>
+    <t>Testing the program at the end of each sprint is something that is usualy neglted. Make sure that at the end of each sprint, the code is tested and is working correctly</t>
   </si>
 </sst>
 </file>
@@ -522,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:I12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,170 +559,228 @@
     <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>25</v>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
